--- a/InputFiles/CCDI/phs001437-sample_20240206_T093054.xlsx
+++ b/InputFiles/CCDI/phs001437-sample_20240206_T093054.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\qa-data-validation\InputFiles\CCDI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48A9CE41-1645-4033-B9FF-6DA566AE2235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028C16AB-C1D6-48E0-B4BC-032695CB30E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raw_Samples" sheetId="1" r:id="rId1"/>
@@ -7618,8 +7618,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:X603"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K535" workbookViewId="0">
-      <selection activeCell="W544" sqref="W544"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -35765,7 +35765,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:X603" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
